--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,13 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22620"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56009D16-93E8-4346-83AA-956BC52292F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhL5aGUBgJ23YWDQUm3DwZkAssZMw=="/>
     </ext>
@@ -60,37 +72,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF19191A"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF19191A"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -100,43 +109,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -326,25 +337,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.29"/>
-    <col customWidth="1" min="2" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="31.57"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,65 +383,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
-        <v>44197.0</v>
-      </c>
-      <c r="D2" s="4" t="b">
+      <c r="C2" s="4">
+        <v>44197</v>
+      </c>
+      <c r="D2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
-        <v>44197.0</v>
-      </c>
-      <c r="D3" s="4" t="b">
+      <c r="C3" s="4">
+        <v>44197</v>
+      </c>
+      <c r="D3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1410,6 +1426,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>